--- a/output/vta_cli_mes_2.xlsx
+++ b/output/vta_cli_mes_2.xlsx
@@ -540,7 +540,7 @@
         <v>34</v>
       </c>
       <c r="Q2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
